--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF698F89-9D8B-4794-A402-FCDB6F881ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58455B4-6831-431E-91E6-CDEA9A4049FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1020" windowWidth="23775" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
@@ -1855,8 +1855,8 @@
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107:B107"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58455B4-6831-431E-91E6-CDEA9A4049FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB790923-92C1-4E1A-A6CF-879EE81A07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="328">
   <si>
     <t>Context</t>
   </si>
@@ -998,6 +998,15 @@
   </si>
   <si>
     <t>Détail des commandes</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Bienvenu</t>
   </si>
 </sst>
 </file>
@@ -1852,11 +1861,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E143"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,7 +1894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1940,7 +1950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1954,7 +1964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1982,7 +1992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1996,7 +2006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2052,7 +2062,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2066,7 +2076,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2080,7 +2090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2108,7 +2118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2122,7 +2132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2164,7 +2174,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2178,7 +2188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2192,7 +2202,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2206,7 +2216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2234,7 +2244,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2248,7 +2258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2276,7 +2286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +2328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2332,7 +2342,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2374,7 +2384,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2388,7 +2398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2416,7 +2426,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2430,7 +2440,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2468,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2472,7 +2482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2486,7 +2496,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2514,7 +2524,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2528,7 +2538,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2542,7 +2552,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2556,7 +2566,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +2622,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2636,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2640,7 +2650,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2654,7 +2664,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2668,7 +2678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2710,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2724,7 +2734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2738,7 +2748,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2780,7 +2790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2794,7 +2804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2822,7 +2832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2836,7 +2846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2850,7 +2860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2864,7 +2874,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2878,7 +2888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +2902,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2934,7 +2944,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2948,7 +2958,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2962,7 +2972,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>208</v>
       </c>
@@ -2990,7 +3000,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -3018,7 +3028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -3046,7 +3056,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>214</v>
       </c>
@@ -3074,7 +3084,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -3088,7 +3098,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>214</v>
       </c>
@@ -3102,7 +3112,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -3130,7 +3140,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>235</v>
       </c>
@@ -3158,7 +3168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>236</v>
       </c>
@@ -3172,7 +3182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>236</v>
       </c>
@@ -3186,7 +3196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -3200,7 +3210,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>236</v>
       </c>
@@ -3242,7 +3252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>236</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -3284,7 +3294,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>236</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>236</v>
       </c>
@@ -3312,7 +3322,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -3326,7 +3336,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -3340,7 +3350,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>236</v>
       </c>
@@ -3424,7 +3434,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -3438,7 +3448,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -3452,7 +3462,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -3466,7 +3476,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>235</v>
       </c>
@@ -3480,7 +3490,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -3494,7 +3504,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>276</v>
       </c>
@@ -3508,7 +3518,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>276</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -3536,7 +3546,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>276</v>
       </c>
@@ -3550,7 +3560,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>276</v>
       </c>
@@ -3564,7 +3574,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>276</v>
       </c>
@@ -3578,7 +3588,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -3606,7 +3616,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>235</v>
       </c>
@@ -3620,7 +3630,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>235</v>
       </c>
@@ -3634,7 +3644,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>235</v>
       </c>
@@ -3648,7 +3658,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>236</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -3690,7 +3700,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>156</v>
       </c>
@@ -3704,7 +3714,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3718,7 +3728,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>156</v>
       </c>
@@ -3746,7 +3756,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -3760,7 +3770,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>156</v>
       </c>
@@ -3774,7 +3784,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -3788,7 +3798,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -3802,7 +3812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>301</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>301</v>
       </c>
@@ -3830,7 +3840,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -3872,8 +3882,29 @@
         <v>313</v>
       </c>
     </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" t="s">
+        <v>325</v>
+      </c>
+      <c r="C144" t="s">
+        <v>326</v>
+      </c>
+      <c r="E144" t="s">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E143" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="GeneralText"/>
+        <filter val="ReportGeneral"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB790923-92C1-4E1A-A6CF-879EE81A07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A2813-D606-47A6-8E54-12583DBC8794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
+      <selection pane="bottomLeft" activeCell="A145" sqref="A145:XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A2813-D606-47A6-8E54-12583DBC8794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AA04BA-3755-4313-9DFC-4BA91E26B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$144</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="332">
   <si>
     <t>Context</t>
   </si>
@@ -1007,6 +1007,18 @@
   </si>
   <si>
     <t>Bienvenu</t>
+  </si>
+  <si>
+    <t>Démarrage…</t>
+  </si>
+  <si>
+    <t>*40-Startup Report.srex</t>
+  </si>
+  <si>
+    <t>Starting...</t>
+  </si>
+  <si>
+    <t>*41-Startup Folder.srex</t>
   </si>
 </sst>
 </file>
@@ -1862,11 +1874,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A145" sqref="A145:XFD145"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3154,7 +3166,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>235</v>
       </c>
@@ -3378,7 +3390,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>260</v>
       </c>
@@ -3392,7 +3404,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -3406,7 +3418,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -3420,7 +3432,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>260</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>235</v>
       </c>
@@ -3476,7 +3488,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>235</v>
       </c>
@@ -3588,7 +3600,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>235</v>
       </c>
@@ -3602,7 +3614,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>235</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>235</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>235</v>
       </c>
@@ -3644,7 +3656,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>235</v>
       </c>
@@ -3854,7 +3866,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>308</v>
       </c>
@@ -3868,7 +3880,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>308</v>
       </c>
@@ -3882,7 +3894,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>308</v>
       </c>
@@ -3896,12 +3908,39 @@
         <v>327</v>
       </c>
     </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>329</v>
+      </c>
+      <c r="C145" t="s">
+        <v>330</v>
+      </c>
+      <c r="E145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>235</v>
+      </c>
+      <c r="B146" t="s">
+        <v>331</v>
+      </c>
+      <c r="C146" t="s">
+        <v>330</v>
+      </c>
+      <c r="E146" t="s">
+        <v>328</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E143" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:E144" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="GeneralText"/>
-        <filter val="ReportGeneral"/>
+        <filter val="ReportDisplayName"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AA04BA-3755-4313-9DFC-4BA91E26B13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3CF38C-2A8A-4384-83B7-9560C8D9D23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1500" windowWidth="24585" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$146</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1006,9 +1006,6 @@
     <t>Welcome</t>
   </si>
   <si>
-    <t>Bienvenu</t>
-  </si>
-  <si>
     <t>Démarrage…</t>
   </si>
   <si>
@@ -1019,6 +1016,9 @@
   </si>
   <si>
     <t>*41-Startup Folder.srex</t>
+  </si>
+  <si>
+    <t>Bienvenue</t>
   </si>
 </sst>
 </file>
@@ -1873,12 +1873,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C146" sqref="C146"/>
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1906,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2004,7 +2003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2018,7 +2017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2032,7 +2031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2046,7 +2045,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2060,7 +2059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2074,7 +2073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2158,7 +2157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2200,7 +2199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2214,7 +2213,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -2256,7 +2255,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -2676,7 +2675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>12</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>12</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>12</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>12</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>12</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2899,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>208</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>208</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>214</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>214</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>214</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>229</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>236</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>236</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>236</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>236</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>236</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>236</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>236</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>236</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>236</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>236</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>236</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>260</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>260</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>260</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>260</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>269</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>236</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>276</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>276</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>276</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>276</v>
       </c>
@@ -3572,7 +3571,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>276</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>276</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>236</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>236</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -3712,7 +3711,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>156</v>
       </c>
@@ -3726,7 +3725,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>156</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>156</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>156</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>156</v>
       </c>
@@ -3824,7 +3823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>301</v>
       </c>
@@ -3838,7 +3837,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>301</v>
       </c>
@@ -3852,7 +3851,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>301</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>308</v>
       </c>
@@ -3880,7 +3879,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>308</v>
       </c>
@@ -3894,7 +3893,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>308</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>326</v>
       </c>
       <c r="E144" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3913,13 +3912,13 @@
         <v>235</v>
       </c>
       <c r="B145" t="s">
+        <v>328</v>
+      </c>
+      <c r="C145" t="s">
         <v>329</v>
       </c>
-      <c r="C145" t="s">
-        <v>330</v>
-      </c>
       <c r="E145" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3927,23 +3926,17 @@
         <v>235</v>
       </c>
       <c r="B146" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C146" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E146" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E144" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ReportDisplayName"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3CF38C-2A8A-4384-83B7-9560C8D9D23A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E482FA3-ADE3-4081-B60A-03E800E8EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1500" windowWidth="24585" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="270">
   <si>
     <t>Context</t>
   </si>
@@ -64,27 +64,18 @@
     <t>Element</t>
   </si>
   <si>
-    <t>Customers.Customer ID</t>
-  </si>
-  <si>
     <t>Customer ID</t>
   </si>
   <si>
     <t>ID Client</t>
   </si>
   <si>
-    <t>Customers.Address</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>Adresse</t>
   </si>
   <si>
-    <t>Customers.City</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -100,111 +91,69 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Customers.Customer Contact</t>
-  </si>
-  <si>
     <t>Customer Contact</t>
   </si>
   <si>
     <t>Contact client</t>
   </si>
   <si>
-    <t>Customers.Contact Title</t>
-  </si>
-  <si>
     <t>Contact Title</t>
   </si>
   <si>
     <t>Titre</t>
   </si>
   <si>
-    <t>Customers.Customer Country</t>
-  </si>
-  <si>
     <t>Customer Country</t>
   </si>
   <si>
     <t>Pays du client</t>
   </si>
   <si>
-    <t>Customers.Fax</t>
-  </si>
-  <si>
     <t>Fax</t>
   </si>
   <si>
-    <t>Customers.Phone</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Téléphone</t>
   </si>
   <si>
-    <t>Customers.Postal Code</t>
-  </si>
-  <si>
     <t>Postal Code</t>
   </si>
   <si>
     <t>Code Postal</t>
   </si>
   <si>
-    <t>Customers.Region</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
     <t>Région</t>
   </si>
   <si>
-    <t>Customers.Customers</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
     <t>Clients</t>
   </si>
   <si>
-    <t>Employees.Employee ID</t>
-  </si>
-  <si>
     <t>Employee ID</t>
   </si>
   <si>
     <t>ID Employé</t>
   </si>
   <si>
-    <t>Employees.Address</t>
-  </si>
-  <si>
-    <t>Employees.Birth Date</t>
-  </si>
-  <si>
     <t>Birth Date</t>
   </si>
   <si>
     <t>Date de naissance</t>
   </si>
   <si>
-    <t>Employees.City</t>
-  </si>
-  <si>
-    <t>Employees.Country</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Pays</t>
   </si>
   <si>
-    <t>Employees.Extension</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
@@ -217,84 +166,48 @@
     <t>Employé</t>
   </si>
   <si>
-    <t>Employees.First Name</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
     <t>Prénom</t>
   </si>
   <si>
-    <t>Employees.Hire Date</t>
-  </si>
-  <si>
     <t>Hire Date</t>
   </si>
   <si>
     <t>Date d'engagement</t>
   </si>
   <si>
-    <t>Employees.Home Phone</t>
-  </si>
-  <si>
     <t>Home Phone</t>
   </si>
   <si>
     <t>Téléphone maison</t>
   </si>
   <si>
-    <t>Employees.Notes</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Employees.Photo</t>
-  </si>
-  <si>
     <t>Photo</t>
   </si>
   <si>
-    <t>Employees.Postal Code</t>
-  </si>
-  <si>
-    <t>Employees.Region</t>
-  </si>
-  <si>
-    <t>Employees.Reports To</t>
-  </si>
-  <si>
     <t>Reports To</t>
   </si>
   <si>
     <t>Rapporte à</t>
   </si>
   <si>
-    <t>Employees.Title</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Employees.Title Of Courtesy</t>
-  </si>
-  <si>
     <t>Title Of Courtesy</t>
   </si>
   <si>
-    <t>Orders/Shipping.Freight</t>
-  </si>
-  <si>
     <t>Freight</t>
   </si>
   <si>
     <t>Poids</t>
   </si>
   <si>
-    <t>Orders.Order Date</t>
-  </si>
-  <si>
     <t>Order Date</t>
   </si>
   <si>
@@ -310,18 +223,12 @@
     <t>ID Commande</t>
   </si>
   <si>
-    <t>Orders.Required Date</t>
-  </si>
-  <si>
     <t>Required Date</t>
   </si>
   <si>
     <t>Date nécessaire</t>
   </si>
   <si>
-    <t>Orders/Shipping.Ship Address</t>
-  </si>
-  <si>
     <t>Ship Address</t>
   </si>
   <si>
@@ -391,45 +298,30 @@
     <t>Livré Via</t>
   </si>
   <si>
-    <t>Orders.Order Year</t>
-  </si>
-  <si>
     <t>Order Year</t>
   </si>
   <si>
     <t>Année de la commande</t>
   </si>
   <si>
-    <t>Orders.Order Month</t>
-  </si>
-  <si>
     <t>Order Month</t>
   </si>
   <si>
     <t>Mois de la commande</t>
   </si>
   <si>
-    <t>Products.Products</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
     <t>Produits</t>
   </si>
   <si>
-    <t>Products.Product ID</t>
-  </si>
-  <si>
     <t>Product ID</t>
   </si>
   <si>
     <t>ID Produit</t>
   </si>
   <si>
-    <t>Products.Discontinued</t>
-  </si>
-  <si>
     <t>Discontinued</t>
   </si>
   <si>
@@ -445,84 +337,51 @@
     <t>Nom du produit</t>
   </si>
   <si>
-    <t>Products.Quantity Per Unit</t>
-  </si>
-  <si>
     <t>Quantity Per Unit</t>
   </si>
   <si>
     <t>Quantité par unité</t>
   </si>
   <si>
-    <t>Products.Reorder Level</t>
-  </si>
-  <si>
     <t>Reorder Level</t>
   </si>
   <si>
     <t>Niveau de commande</t>
   </si>
   <si>
-    <t>Products.Unit Price</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
     <t>Prix unitaire</t>
   </si>
   <si>
-    <t>Products.Units In Stock</t>
-  </si>
-  <si>
     <t>Units In Stock</t>
   </si>
   <si>
     <t>Unités en stock</t>
   </si>
   <si>
-    <t>Products.Units On Order</t>
-  </si>
-  <si>
     <t>Units On Order</t>
   </si>
   <si>
     <t>Unités à commander</t>
   </si>
   <si>
-    <t>Products.Category</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Catégorie</t>
   </si>
   <si>
-    <t>Shippers.Shipper</t>
-  </si>
-  <si>
     <t>Shipper</t>
   </si>
   <si>
-    <t>Shippers.Phone</t>
-  </si>
-  <si>
-    <t>Shippers.Shipper ID</t>
-  </si>
-  <si>
     <t>Shipper ID</t>
   </si>
   <si>
     <t>ID Livreur</t>
   </si>
   <si>
-    <t>Suppliers.Address</t>
-  </si>
-  <si>
-    <t>Suppliers.City</t>
-  </si>
-  <si>
     <t>Suppliers.Supplier</t>
   </si>
   <si>
@@ -532,51 +391,24 @@
     <t>Fournisseur</t>
   </si>
   <si>
-    <t>Suppliers.Contact Name</t>
-  </si>
-  <si>
     <t>Contact Name</t>
   </si>
   <si>
     <t>Nom du contact</t>
   </si>
   <si>
-    <t>Suppliers.Contact Title</t>
-  </si>
-  <si>
-    <t>Suppliers.Supplier Country</t>
-  </si>
-  <si>
     <t>Supplier Country</t>
   </si>
   <si>
     <t>Pays du fournisseur</t>
   </si>
   <si>
-    <t>Suppliers.Fax</t>
-  </si>
-  <si>
-    <t>Suppliers.Home Page</t>
-  </si>
-  <si>
     <t>Home Page</t>
   </si>
   <si>
     <t>Page d'accueil</t>
   </si>
   <si>
-    <t>Suppliers.Phone</t>
-  </si>
-  <si>
-    <t>Suppliers.Postal Code</t>
-  </si>
-  <si>
-    <t>Suppliers.Region</t>
-  </si>
-  <si>
-    <t>Suppliers.Supplier ID</t>
-  </si>
-  <si>
     <t>Supplier ID</t>
   </si>
   <si>
@@ -592,57 +424,36 @@
     <t>Taux de rabais</t>
   </si>
   <si>
-    <t>Order Details.Quantity</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Quantité</t>
   </si>
   <si>
-    <t>Order Details.Unit Price</t>
-  </si>
-  <si>
-    <t>Order Details.Amount</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>Montant</t>
   </si>
   <si>
-    <t>Order Details.Discount</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
     <t>Rabais</t>
   </si>
   <si>
-    <t>Order Details.Orders Amount</t>
-  </si>
-  <si>
     <t>Orders Amount</t>
   </si>
   <si>
     <t>Montant Commandes</t>
   </si>
   <si>
-    <t>Orders.Orders Count</t>
-  </si>
-  <si>
     <t>Orders Count</t>
   </si>
   <si>
     <t>Nombre de Commandes</t>
   </si>
   <si>
-    <t>Customers.Clients Count</t>
-  </si>
-  <si>
     <t>Clients Count</t>
   </si>
   <si>
@@ -898,9 +709,6 @@
     <t>Détail</t>
   </si>
   <si>
-    <t>Orders/Shipping</t>
-  </si>
-  <si>
     <t>Shipping</t>
   </si>
   <si>
@@ -1019,6 +827,12 @@
   </si>
   <si>
     <t>Bienvenue</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*Shipping.Ship Address</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1690,8 @@
   <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C145" sqref="C145"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,13 +1752,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1952,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1966,13 +1780,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,13 +1794,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1994,13 +1808,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2008,13 +1822,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>268</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,13 +1836,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2036,13 +1850,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2050,13 +1864,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,13 +1878,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2078,13 +1892,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2092,13 +1906,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,13 +1920,13 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2120,13 +1934,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>268</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,13 +1948,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,13 +1962,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>268</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,13 +1976,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,13 +1990,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>268</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2190,13 +2004,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>268</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,13 +2018,13 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>268</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,13 +2032,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2232,13 +2046,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2246,13 +2060,13 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2260,13 +2074,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2274,13 +2088,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,13 +2102,13 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2302,13 +2116,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,13 +2130,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2330,13 +2144,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,13 +2158,13 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2358,13 +2172,13 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2372,13 +2186,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>268</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2386,13 +2200,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,13 +2214,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,13 +2228,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2428,13 +2242,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2442,13 +2256,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2456,13 +2270,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,13 +2284,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2484,13 +2298,13 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2498,13 +2312,13 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2512,13 +2326,13 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2526,13 +2340,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2540,13 +2354,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,13 +2368,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2568,13 +2382,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E49" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,13 +2396,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>268</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2596,13 +2410,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2610,13 +2424,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2624,13 +2438,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2638,13 +2452,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2652,13 +2466,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2666,13 +2480,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2680,13 +2494,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2694,13 +2508,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2708,13 +2522,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,13 +2536,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2736,13 +2550,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2750,13 +2564,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2764,13 +2578,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,13 +2592,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2792,13 +2606,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2806,13 +2620,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,13 +2634,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>268</v>
       </c>
       <c r="C67" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2834,13 +2648,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2848,13 +2662,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2862,13 +2676,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2876,13 +2690,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2890,13 +2704,13 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="E72" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2904,13 +2718,13 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2918,13 +2732,13 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2932,13 +2746,13 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2946,13 +2760,13 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2960,13 +2774,13 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="C77" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2974,13 +2788,13 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2988,951 +2802,951 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>268</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="B80" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="B81" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
       <c r="E84" t="s">
-        <v>218</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B85" t="s">
+        <v>114</v>
+      </c>
+      <c r="C85" t="s">
         <v>156</v>
       </c>
-      <c r="C85" t="s">
-        <v>219</v>
-      </c>
       <c r="E85" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B86" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="E86" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>228</v>
+        <v>165</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>229</v>
+        <v>166</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="C90" t="s">
-        <v>230</v>
+        <v>167</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="E91" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B92" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B94" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>174</v>
       </c>
       <c r="E94" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B95" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C95" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B96" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>238</v>
+        <v>175</v>
       </c>
       <c r="E96" t="s">
-        <v>239</v>
+        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E97" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="E98" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="E100" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B101" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="E101" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="E102" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="E103" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="E104" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B105" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="E106" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="E107" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="E108" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B109" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="E109" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B110" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>265</v>
+        <v>202</v>
       </c>
       <c r="E110" t="s">
-        <v>266</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="E111" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>314</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="E112" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="E113" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="C114" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="E114" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="C115" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="E115" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="C116" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E116" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B118" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E118" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B119" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="E119" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="E120" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="E121" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="B122" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="E122" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="C123" t="s">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="E123" t="s">
-        <v>282</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C124" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="E124" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B125" t="s">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="C125" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="E125" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B126" t="s">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="E126" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B127" t="s">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>283</v>
+        <v>220</v>
       </c>
       <c r="E127" t="s">
-        <v>284</v>
+        <v>221</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C128" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="E128" t="s">
-        <v>288</v>
+        <v>225</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="C129" t="s">
-        <v>289</v>
+        <v>226</v>
       </c>
       <c r="E129" t="s">
-        <v>290</v>
+        <v>227</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C131" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>229</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="C132" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B133" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="E133" t="s">
-        <v>295</v>
+        <v>231</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="E134" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="E135" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B136" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C136" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
       <c r="E136" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B137" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="C137" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="E137" t="s">
-        <v>300</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E138" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="C139" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="E139" t="s">
-        <v>303</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="B140" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="C140" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="E140" t="s">
-        <v>305</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="C141" t="s">
-        <v>306</v>
+        <v>242</v>
       </c>
       <c r="E141" t="s">
-        <v>307</v>
+        <v>243</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="B142" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="C142" t="s">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="E142" t="s">
-        <v>311</v>
+        <v>247</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="B143" t="s">
-        <v>309</v>
+        <v>245</v>
       </c>
       <c r="C143" t="s">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="E143" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="B144" t="s">
-        <v>325</v>
+        <v>261</v>
       </c>
       <c r="C144" t="s">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="E144" t="s">
-        <v>331</v>
+        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>328</v>
+        <v>264</v>
       </c>
       <c r="C145" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="E145" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>172</v>
       </c>
       <c r="B146" t="s">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="C146" t="s">
-        <v>329</v>
+        <v>265</v>
       </c>
       <c r="E146" t="s">
-        <v>327</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E482FA3-ADE3-4081-B60A-03E800E8EB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1EAE5-B738-486B-9779-871FDBD17B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="1605" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4320" yWindow="825" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="271">
   <si>
     <t>Context</t>
   </si>
@@ -833,6 +833,9 @@
   </si>
   <si>
     <t>*Shipping.Ship Address</t>
+  </si>
+  <si>
+    <t>Titre de courtoisie</t>
   </si>
 </sst>
 </file>
@@ -1690,8 +1693,8 @@
   <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,7 +2153,7 @@
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">

--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A1EAE5-B738-486B-9779-871FDBD17B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E857B-1FC2-46F6-BAA0-645F79F70EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="825" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30750" yWindow="1950" windowWidth="21780" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$142</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="269">
   <si>
     <t>Context</t>
   </si>
@@ -374,12 +374,6 @@
   </si>
   <si>
     <t>Shipper</t>
-  </si>
-  <si>
-    <t>Shipper ID</t>
-  </si>
-  <si>
-    <t>ID Livreur</t>
   </si>
   <si>
     <t>Suppliers.Supplier</t>
@@ -1690,11 +1684,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,7 +1749,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -1769,7 +1763,7 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1783,7 +1777,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1797,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1811,7 +1805,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1825,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1839,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1853,7 +1847,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1867,7 +1861,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -1881,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -1895,7 +1889,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -1909,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1923,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -1937,13 +1931,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,13 +1945,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1965,13 +1959,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,13 +1973,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,13 +1987,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2007,13 +2001,13 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,13 +2015,13 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2035,13 +2029,13 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,13 +2043,13 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,13 +2057,13 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,13 +2071,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,13 +2085,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2105,13 +2099,13 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2119,13 +2113,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2133,13 +2127,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
         <v>268</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2147,13 +2141,13 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2161,13 +2155,13 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2175,13 +2169,13 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2189,13 +2183,13 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2203,13 +2197,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,13 +2211,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,13 +2225,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2245,13 +2239,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,13 +2253,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,13 +2267,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2287,13 +2281,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2301,13 +2295,13 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,13 +2309,13 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,13 +2323,13 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2343,13 +2337,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2357,13 +2351,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2371,13 +2365,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2385,13 +2379,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2399,13 +2393,13 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2413,13 +2407,13 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2427,13 +2421,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2441,13 +2435,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,13 +2449,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,13 +2463,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2483,13 +2477,13 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,13 +2491,13 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2511,13 +2505,13 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2525,13 +2519,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2539,13 +2533,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2553,13 +2547,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E61" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2567,13 +2561,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2581,13 +2575,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2595,13 +2589,13 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,13 +2603,13 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2623,13 +2617,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2637,13 +2631,13 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,13 +2645,13 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2665,13 +2659,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2679,13 +2673,13 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2693,13 +2687,13 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,13 +2701,13 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2721,13 +2715,13 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E73" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,13 +2729,13 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,13 +2743,13 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2763,693 +2757,693 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="B77" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
         <v>114</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B83" t="s">
         <v>114</v>
       </c>
       <c r="C83" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B84" t="s">
         <v>114</v>
       </c>
       <c r="C84" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B85" t="s">
         <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B86" t="s">
         <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>254</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>170</v>
+        <v>114</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" t="s">
         <v>173</v>
       </c>
-      <c r="B93" t="s">
-        <v>250</v>
-      </c>
-      <c r="C93" t="s">
-        <v>45</v>
-      </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="E95" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E98" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E99" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E100" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E102" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E103" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="E104" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E106" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C107" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="E107" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C111" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C112" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E112" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B113" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="E113" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="C115" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>63</v>
       </c>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="E116" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E117" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B118" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="E118" t="s">
-        <v>46</v>
+        <v>219</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C119" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
         <v>216</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>213</v>
-      </c>
-      <c r="B120" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" t="s">
-        <v>218</v>
-      </c>
-      <c r="E120" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>220</v>
+      </c>
+      <c r="E122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>170</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+      <c r="C123" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" t="s">
         <v>213</v>
-      </c>
-      <c r="B122" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" t="s">
-        <v>222</v>
-      </c>
-      <c r="E122" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>172</v>
-      </c>
-      <c r="B123" t="s">
-        <v>251</v>
-      </c>
-      <c r="C123" t="s">
-        <v>218</v>
-      </c>
-      <c r="E123" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B124" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C124" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E124" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
         <v>222</v>
@@ -3460,58 +3454,58 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E126" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C127" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E127" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C128" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="E128" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3519,13 +3513,13 @@
         <v>114</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
       <c r="E130" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,13 +3527,13 @@
         <v>114</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="E131" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3547,13 +3541,13 @@
         <v>114</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="E132" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3561,13 +3555,13 @@
         <v>114</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E133" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3575,185 +3569,129 @@
         <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C134" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="E134" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="C135" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="E135" t="s">
-        <v>96</v>
+        <v>237</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E136" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="C137" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E137" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>114</v>
+        <v>242</v>
       </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="E138" t="s">
-        <v>36</v>
+        <v>245</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B139" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E139" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B140" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="C140" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E140" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="B141" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C141" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="E141" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C142" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="E142" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>244</v>
-      </c>
-      <c r="B143" t="s">
-        <v>245</v>
-      </c>
-      <c r="C143" t="s">
-        <v>248</v>
-      </c>
-      <c r="E143" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>244</v>
-      </c>
-      <c r="B144" t="s">
         <v>261</v>
       </c>
-      <c r="C144" t="s">
-        <v>262</v>
-      </c>
-      <c r="E144" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>172</v>
-      </c>
-      <c r="B145" t="s">
-        <v>264</v>
-      </c>
-      <c r="C145" t="s">
-        <v>265</v>
-      </c>
-      <c r="E145" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>172</v>
-      </c>
-      <c r="B146" t="s">
-        <v>266</v>
-      </c>
-      <c r="C146" t="s">
-        <v>265</v>
-      </c>
-      <c r="E146" t="s">
-        <v>263</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E146" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E857B-1FC2-46F6-BAA0-645F79F70EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9EA56-756A-4925-BF39-4696C0E4202B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30750" yWindow="1950" windowWidth="21780" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$144</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="273">
   <si>
     <t>Context</t>
   </si>
@@ -830,6 +830,18 @@
   </si>
   <si>
     <t>Titre de courtoisie</t>
+  </si>
+  <si>
+    <t>Please enter at least a restriction...</t>
+  </si>
+  <si>
+    <t>Merci de renseigner au moins une restriction…</t>
+  </si>
+  <si>
+    <t>Type a text to filter</t>
+  </si>
+  <si>
+    <t>Entrez un texte pour filtrer</t>
   </si>
 </sst>
 </file>
@@ -1684,11 +1696,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3690,8 +3702,36 @@
         <v>261</v>
       </c>
     </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" t="s">
+        <v>259</v>
+      </c>
+      <c r="C143" t="s">
+        <v>269</v>
+      </c>
+      <c r="E143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>242</v>
+      </c>
+      <c r="B144" t="s">
+        <v>259</v>
+      </c>
+      <c r="C144" t="s">
+        <v>271</v>
+      </c>
+      <c r="E144" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E142" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED9EA56-756A-4925-BF39-4696C0E4202B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D116D-56A3-4F2B-8FE6-90E354612833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3270" windowWidth="23940" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$146</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="277">
   <si>
     <t>Context</t>
   </si>
@@ -842,6 +842,18 @@
   </si>
   <si>
     <t>Entrez un texte pour filtrer</t>
+  </si>
+  <si>
+    <t>Data loaded successfully</t>
+  </si>
+  <si>
+    <t>Données chargées avec succès</t>
+  </si>
+  <si>
+    <t>Click to reload</t>
+  </si>
+  <si>
+    <t>Cliquer pour recharger</t>
   </si>
 </sst>
 </file>
@@ -1400,9 +1412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1440,7 +1452,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1546,7 +1558,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1688,7 +1700,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1696,11 +1708,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,184 +1742,184 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>266</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>266</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>266</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>266</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>266</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>233</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1918,10 +1930,10 @@
         <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,10 +1944,10 @@
         <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,10 +1972,10 @@
         <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1974,10 +1986,10 @@
         <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1988,10 +2000,10 @@
         <v>266</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2002,10 +2014,10 @@
         <v>266</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2016,10 +2028,10 @@
         <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2030,10 +2042,10 @@
         <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2044,10 +2056,10 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,10 +2070,10 @@
         <v>266</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,10 +2084,10 @@
         <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2086,10 +2098,10 @@
         <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2100,10 +2112,10 @@
         <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2114,10 +2126,10 @@
         <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,10 +2140,10 @@
         <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,10 +2154,10 @@
         <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2156,10 +2168,10 @@
         <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,10 +2182,10 @@
         <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="E33" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2184,10 +2196,10 @@
         <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,10 +2210,10 @@
         <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2209,13 +2221,13 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2223,13 +2235,13 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2237,13 +2249,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2251,13 +2263,13 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,13 +2277,13 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,13 +2291,13 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E41" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,13 +2305,13 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2307,13 +2319,13 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,10 +2336,10 @@
         <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2338,10 +2350,10 @@
         <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2352,10 +2364,10 @@
         <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,10 +2378,10 @@
         <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,10 +2392,10 @@
         <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2394,10 +2406,10 @@
         <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2408,10 +2420,10 @@
         <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2422,10 +2434,10 @@
         <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2436,10 +2448,10 @@
         <v>266</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2450,10 +2462,10 @@
         <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2464,10 +2476,10 @@
         <v>266</v>
       </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2478,10 +2490,10 @@
         <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,10 +2504,10 @@
         <v>266</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2506,10 +2518,10 @@
         <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,10 +2532,10 @@
         <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2534,10 +2546,10 @@
         <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,10 +2560,10 @@
         <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2562,10 +2574,10 @@
         <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2576,10 +2588,10 @@
         <v>266</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2590,10 +2602,10 @@
         <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2604,10 +2616,10 @@
         <v>266</v>
       </c>
       <c r="C64" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2618,10 +2630,10 @@
         <v>266</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2632,10 +2644,10 @@
         <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2646,10 +2658,10 @@
         <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2660,10 +2672,10 @@
         <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2671,13 +2683,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2688,10 +2700,10 @@
         <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2702,10 +2714,10 @@
         <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2716,10 +2728,10 @@
         <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2730,10 +2742,10 @@
         <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2744,10 +2756,10 @@
         <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>138</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,10 +2770,10 @@
         <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2772,486 +2784,486 @@
         <v>266</v>
       </c>
       <c r="C76" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>68</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E92" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E93" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E94" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C97" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E97" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B98" t="s">
         <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E98" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="E102" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C103" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="B104" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E104" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="B106" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C106" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="C107" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C108" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="E109" t="s">
-        <v>206</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="E110" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3259,13 +3271,13 @@
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E111" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3273,77 +3285,77 @@
         <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E112" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E113" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="E115" t="s">
-        <v>46</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>256</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>117</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
         <v>216</v>
@@ -3354,100 +3366,100 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B118" t="s">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C121" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="E121" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E123" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E124" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3455,13 +3467,13 @@
         <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C125" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3469,269 +3481,303 @@
         <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
-        <v>226</v>
+        <v>45</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C128" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C129" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="E129" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="E130" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C131" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="E131" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C132" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="E132" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C133" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="E133" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B135" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C135" t="s">
-        <v>236</v>
+        <v>187</v>
       </c>
       <c r="E135" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C136" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
       <c r="E136" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C137" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="E137" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="B138" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C138" t="s">
-        <v>244</v>
+        <v>177</v>
       </c>
       <c r="E138" t="s">
-        <v>245</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="B139" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C139" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>242</v>
+        <v>171</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C140" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="C141" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="C142" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
+        <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="C143" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="E143" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="E144" t="s">
-        <v>272</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" t="s">
+        <v>218</v>
+      </c>
+      <c r="E145" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>211</v>
+      </c>
+      <c r="B146" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" t="s">
+        <v>216</v>
+      </c>
+      <c r="E146" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E144" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E146" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E146">
+      <sortCondition ref="A2:A146"/>
+      <sortCondition ref="B2:B146"/>
+      <sortCondition ref="C2:C146"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Repository/Settings/RepositoryTranslations.xlsx
+++ b/Repository/Settings/RepositoryTranslations.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\Seal-Report\Repository\Settings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_dev\eReports\Repository\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383D116D-56A3-4F2B-8FE6-90E354612833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62BFEFA-9DAB-4D49-84C1-5ACB4180AFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3270" windowWidth="23940" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="330" windowWidth="23940" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RepositoryTranslations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RepositoryTranslations!$A$1:$E$147</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="279">
   <si>
     <t>Context</t>
   </si>
@@ -854,6 +854,12 @@
   </si>
   <si>
     <t>Cliquer pour recharger</t>
+  </si>
+  <si>
+    <t>Orders/Shipping</t>
+  </si>
+  <si>
+    <t>Commandes/Livraison</t>
   </si>
 </sst>
 </file>
@@ -1708,11 +1714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,24 +1852,24 @@
         <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1871,27 +1877,27 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1899,13 +1905,13 @@
         <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1913,27 +1919,27 @@
         <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,10 +1950,10 @@
         <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,10 +1964,10 @@
         <v>266</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1972,10 +1978,10 @@
         <v>266</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1986,10 +1992,10 @@
         <v>266</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2028,10 +2034,10 @@
         <v>266</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>142</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2042,10 +2048,10 @@
         <v>266</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2056,10 +2062,10 @@
         <v>266</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2084,10 +2090,10 @@
         <v>266</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2098,10 +2104,10 @@
         <v>266</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2112,10 +2118,10 @@
         <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2126,10 +2132,10 @@
         <v>266</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,10 +2146,10 @@
         <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2154,10 +2160,10 @@
         <v>266</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,10 +2174,10 @@
         <v>266</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2182,10 +2188,10 @@
         <v>266</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,10 +2202,10 @@
         <v>266</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,10 +2216,10 @@
         <v>266</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,10 +2230,10 @@
         <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2238,10 +2244,10 @@
         <v>266</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2266,10 +2272,10 @@
         <v>266</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2280,10 +2286,10 @@
         <v>266</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2294,10 +2300,10 @@
         <v>266</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2308,10 +2314,10 @@
         <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,10 +2328,10 @@
         <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2336,10 +2342,10 @@
         <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,10 +2356,10 @@
         <v>266</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2364,10 +2370,10 @@
         <v>266</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,10 +2384,10 @@
         <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2392,10 +2398,10 @@
         <v>266</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2406,10 +2412,10 @@
         <v>266</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,10 +2426,10 @@
         <v>266</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,10 +2440,10 @@
         <v>266</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2476,10 +2482,10 @@
         <v>266</v>
       </c>
       <c r="C54" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2490,10 +2496,10 @@
         <v>266</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2532,10 +2538,10 @@
         <v>266</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2546,10 +2552,10 @@
         <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2560,10 +2566,10 @@
         <v>266</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,10 +2580,10 @@
         <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,10 +2594,10 @@
         <v>266</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2602,10 +2608,10 @@
         <v>266</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2644,10 +2650,10 @@
         <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2658,10 +2664,10 @@
         <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2672,10 +2678,10 @@
         <v>266</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2686,10 +2692,10 @@
         <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2700,10 +2706,10 @@
         <v>266</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2714,10 +2720,10 @@
         <v>266</v>
       </c>
       <c r="C71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2728,10 +2734,10 @@
         <v>266</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2742,10 +2748,10 @@
         <v>266</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2756,10 +2762,10 @@
         <v>266</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2770,10 +2776,10 @@
         <v>266</v>
       </c>
       <c r="C75" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2798,10 +2804,10 @@
         <v>266</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2812,10 +2818,10 @@
         <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,13 +2829,13 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E79" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,13 +2843,13 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,13 +2857,13 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2865,13 +2871,13 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E82" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,13 +2885,13 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,13 +2899,13 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C84" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E84" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,13 +2913,13 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,13 +2927,13 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E86" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,27 +2941,27 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2966,10 +2972,10 @@
         <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E89" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -2980,10 +2986,10 @@
         <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2994,10 +3000,10 @@
         <v>114</v>
       </c>
       <c r="C91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3008,10 +3014,10 @@
         <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3022,10 +3028,10 @@
         <v>114</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E93" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3036,10 +3042,10 @@
         <v>114</v>
       </c>
       <c r="C94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3050,24 +3056,24 @@
         <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="E96" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,27 +3081,27 @@
         <v>143</v>
       </c>
       <c r="B97" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="C98" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3103,41 +3109,41 @@
         <v>167</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="E99" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="E100" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="E101" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3148,10 +3154,10 @@
         <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E102" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,13 +3165,13 @@
         <v>242</v>
       </c>
       <c r="B103" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C103" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="E103" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3176,10 +3182,10 @@
         <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,10 +3196,10 @@
         <v>259</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E105" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,13 +3207,13 @@
         <v>242</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C106" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E106" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3218,24 +3224,24 @@
         <v>266</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C108" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E108" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3243,7 +3249,7 @@
         <v>170</v>
       </c>
       <c r="B109" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
         <v>263</v>
@@ -3257,13 +3263,13 @@
         <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,13 +3277,13 @@
         <v>170</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3285,13 +3291,13 @@
         <v>170</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,13 +3305,13 @@
         <v>170</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="E113" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,13 +3319,13 @@
         <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -3327,13 +3333,13 @@
         <v>170</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E115" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -3341,13 +3347,13 @@
         <v>170</v>
       </c>
       <c r="B116" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,27 +3361,27 @@
         <v>170</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -3386,10 +3392,10 @@
         <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E119" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -3400,10 +3406,10 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E120" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3414,38 +3420,38 @@
         <v>248</v>
       </c>
       <c r="C121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B122" t="s">
         <v>248</v>
       </c>
       <c r="C122" t="s">
+        <v>200</v>
+      </c>
+      <c r="E122" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>204</v>
+      </c>
+      <c r="B123" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" t="s">
         <v>205</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>171</v>
-      </c>
-      <c r="B123" t="s">
-        <v>250</v>
-      </c>
-      <c r="C123" t="s">
-        <v>224</v>
-      </c>
-      <c r="E123" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -3456,10 +3462,10 @@
         <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E124" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,13 +3473,13 @@
         <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="E125" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -3484,10 +3490,10 @@
         <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -3498,10 +3504,10 @@
         <v>248</v>
       </c>
       <c r="C127" t="s">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -3512,10 +3518,10 @@
         <v>248</v>
       </c>
       <c r="C128" t="s">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="E128" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -3526,10 +3532,10 @@
         <v>248</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E129" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -3540,10 +3546,10 @@
         <v>248</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E130" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -3554,10 +3560,10 @@
         <v>248</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="E131" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -3568,10 +3574,10 @@
         <v>248</v>
       </c>
       <c r="C132" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="E132" t="s">
-        <v>258</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -3582,10 +3588,10 @@
         <v>248</v>
       </c>
       <c r="C133" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="E133" t="s">
-        <v>190</v>
+        <v>258</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -3596,10 +3602,10 @@
         <v>248</v>
       </c>
       <c r="C134" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E134" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -3610,10 +3616,10 @@
         <v>248</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E135" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -3624,10 +3630,10 @@
         <v>248</v>
       </c>
       <c r="C136" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E136" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -3638,10 +3644,10 @@
         <v>248</v>
       </c>
       <c r="C137" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E137" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -3652,10 +3658,10 @@
         <v>248</v>
       </c>
       <c r="C138" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E138" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -3666,10 +3672,10 @@
         <v>248</v>
       </c>
       <c r="C139" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E139" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,27 +3683,27 @@
         <v>171</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E140" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="E141" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -3705,13 +3711,13 @@
         <v>211</v>
       </c>
       <c r="B142" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
       <c r="E142" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -3722,10 +3728,10 @@
         <v>44</v>
       </c>
       <c r="C143" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="E143" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -3733,13 +3739,13 @@
         <v>211</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E144" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -3747,13 +3753,13 @@
         <v>211</v>
       </c>
       <c r="B145" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C145" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E145" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -3761,21 +3767,35 @@
         <v>211</v>
       </c>
       <c r="B146" t="s">
+        <v>101</v>
+      </c>
+      <c r="C146" t="s">
+        <v>218</v>
+      </c>
+      <c r="E146" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" t="s">
         <v>117</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>216</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E147" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E146" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E146">
-      <sortCondition ref="A2:A146"/>
-      <sortCondition ref="B2:B146"/>
-      <sortCondition ref="C2:C146"/>
+  <autoFilter ref="A1:E147" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E147">
+      <sortCondition ref="A2:A147"/>
+      <sortCondition ref="B2:B147"/>
+      <sortCondition ref="C2:C147"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
